--- a/_raw_data/xlsx/trait_val_key.xlsx
+++ b/_raw_data/xlsx/trait_val_key.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="1020" windowWidth="27280" windowHeight="15000"/>
+    <workbookView xWindow="3880" yWindow="0" windowWidth="27280" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="valid_values" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>Category</t>
   </si>
@@ -332,9 +332,6 @@
     </r>
   </si>
   <si>
-    <t>epipelagic; mesopelagic; bathypelagic; abyssopelagic; hadopelagic</t>
-  </si>
-  <si>
     <t>zone</t>
   </si>
   <si>
@@ -408,20 +405,6 @@
     <t>depth (min/max)</t>
   </si>
   <si>
-    <r>
-      <t>navigation requirements (sound or light</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, or magnetic)</t>
-    </r>
-  </si>
-  <si>
     <t>post-birth/hatching parental dependence</t>
   </si>
   <si>
@@ -496,9 +479,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">epipelagic; mesopelagic; bathypelagic; abyssopelagic; hadopelagic </t>
-  </si>
-  <si>
     <t>none; internal; external with a cover; external; in external protein matrix; in cellulose cell wall</t>
   </si>
   <si>
@@ -542,6 +522,40 @@
   </si>
   <si>
     <t>feeding calcifier; feeding non-calcifier; non-feeding calcifier; non-feeding non-calcifier; no larva; NA</t>
+  </si>
+  <si>
+    <r>
+      <t>navigation requirements (sound</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>navigation requirements (light)</t>
+  </si>
+  <si>
+    <r>
+      <t>navigation requirements (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>magnetic)</t>
+    </r>
+  </si>
+  <si>
+    <t>epipelagic; mesopelagic; bathypelagic; abyssopelagic; hadopelagic; atmosphere</t>
   </si>
 </sst>
 </file>
@@ -667,8 +681,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -707,7 +725,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -718,6 +736,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -728,6 +748,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1051,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1070,18 +1092,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1090,19 +1112,19 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1116,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1128,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1137,10 +1159,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1176,13 +1198,13 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1197,10 +1219,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1212,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1224,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1236,12 +1258,12 @@
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1262,7 +1284,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1286,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1310,7 +1332,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1324,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1336,7 +1358,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1348,7 +1370,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1360,7 +1382,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1372,7 +1394,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1384,7 +1406,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1396,7 +1418,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1410,7 +1432,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1422,7 +1444,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1434,7 +1456,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1448,7 +1470,7 @@
         <v>49</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1460,7 +1482,7 @@
         <v>51</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1472,7 +1494,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16">
@@ -1486,162 +1508,174 @@
         <v>57</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>75</v>
+      <c r="B43" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>102</v>
+      <c r="B44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" ht="15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="D47" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2"/>
@@ -1768,6 +1802,18 @@
       <c r="B74" s="2"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_raw_data/xlsx/trait_val_key.xlsx
+++ b/_raw_data/xlsx/trait_val_key.xlsx
@@ -246,9 +246,6 @@
     <t>sensitive/not sensitive/NA (e.g. sea grass/limpet/whale)</t>
   </si>
   <si>
-    <t>light dependence</t>
-  </si>
-  <si>
     <t>air-sea interface</t>
   </si>
   <si>
@@ -420,20 +417,6 @@
     <t>sessile; nearly sessile/sedentary; passive; vertical migrator; mobile resident; horizontal migrator; nomadic</t>
   </si>
   <si>
-    <r>
-      <t>&lt;1 day; &lt;1 week; &lt;1 month; &lt;4 months; 4 months -1yr; &gt;1yr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; not larvae</t>
-    </r>
-  </si>
-  <si>
     <t>sexual dioecious; sexual hermaphrodite; asexual; colonial</t>
   </si>
   <si>
@@ -556,6 +539,23 @@
   </si>
   <si>
     <t>epipelagic; mesopelagic; bathypelagic; abyssopelagic; hadopelagic; atmosphere</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;1 day; &lt;1 week; &lt;1 month; &lt;4 months; 4 months -1yr; &gt;1yr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; not larvae;holoplankton</t>
+    </r>
+  </si>
+  <si>
+    <t>photosynthetic</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1092,18 +1092,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1112,19 +1112,19 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1150,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1159,10 +1159,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1198,13 +1198,13 @@
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1219,10 +1219,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1246,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1258,12 +1258,12 @@
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>25</v>
@@ -1284,7 +1284,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1308,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1332,341 +1332,341 @@
         <v>36</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
+      <c r="B21" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16">
       <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4">
